--- a/sequences/encoding_practice.xlsx
+++ b/sequences/encoding_practice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elena\Nextcloud\Masterthesis_EMS-TMR\EMS-TMR-Experiment\sequences\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202F937B-3451-484F-ACB1-EC6BE83CD958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C9F76F-9002-461A-BC67-4CB35BE60A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{A9B36CB3-9952-4D15-A0C7-ABEFACA8783E}"/>
+    <workbookView xWindow="9518" yWindow="0" windowWidth="9765" windowHeight="10162" xr2:uid="{A9B36CB3-9952-4D15-A0C7-ABEFACA8783E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -56,15 +56,6 @@
     <t>flower</t>
   </si>
   <si>
-    <t>moon</t>
-  </si>
-  <si>
-    <t>dive</t>
-  </si>
-  <si>
-    <t>run</t>
-  </si>
-  <si>
     <t>practice_encoding/dogxxx.png</t>
   </si>
   <si>
@@ -72,6 +63,15 @@
   </si>
   <si>
     <t>practice_encoding/flowerxxx.png</t>
+  </si>
+  <si>
+    <t>de_folgen</t>
+  </si>
+  <si>
+    <t>de_leeren</t>
+  </si>
+  <si>
+    <t>de_warnen</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -493,10 +493,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -507,10 +507,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -521,10 +521,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>

--- a/sequences/encoding_practice.xlsx
+++ b/sequences/encoding_practice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elena\Nextcloud\Masterthesis_EMS-TMR\EMS-TMR-Experiment\sequences\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C9F76F-9002-461A-BC67-4CB35BE60A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC78074-731E-4E0C-813E-ED0178E82A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9518" yWindow="0" windowWidth="9765" windowHeight="10162" xr2:uid="{A9B36CB3-9952-4D15-A0C7-ABEFACA8783E}"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{A9B36CB3-9952-4D15-A0C7-ABEFACA8783E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -65,13 +65,13 @@
     <t>practice_encoding/flowerxxx.png</t>
   </si>
   <si>
-    <t>de_folgen</t>
-  </si>
-  <si>
-    <t>de_leeren</t>
-  </si>
-  <si>
-    <t>de_warnen</t>
+    <t>de_erinnern</t>
+  </si>
+  <si>
+    <t>de_verlassen</t>
+  </si>
+  <si>
+    <t>de_beginnen</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
